--- a/DatasetS3_measurements.xlsx
+++ b/DatasetS3_measurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DanielPaluh/Dropbox (UFL)/Edentulous_frogs/submission/final data and scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DanielPaluh/Dropbox (UFL)/Edentulous_frogs/Revision_ready/final data and scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F563CB-A0F4-E94A-9C44-47D4A628A343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F76C98E-181F-4745-A6A9-F2DEDBA2F6F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3142,9 +3142,6 @@
     <t>Phrynomantis annectens</t>
   </si>
   <si>
-    <t>AMB:10086</t>
-  </si>
-  <si>
     <t>Phrynomedusa_fimbriata</t>
   </si>
   <si>
@@ -4235,6 +4232,9 @@
   </si>
   <si>
     <t>amnh:herpetology:a-159115</t>
+  </si>
+  <si>
+    <t>UF:Herp:187273</t>
   </si>
 </sst>
 </file>
@@ -5082,8 +5082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D344" sqref="D344"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5103,7 +5103,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E1" t="s">
         <v>1393</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1394</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -5139,7 +5139,7 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -5156,7 +5156,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -5197,7 +5197,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -5238,7 +5238,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -5279,7 +5279,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -5320,7 +5320,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -5361,7 +5361,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -5402,7 +5402,7 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -5443,7 +5443,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -5484,7 +5484,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -5525,7 +5525,7 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -5566,7 +5566,7 @@
         <v>646</v>
       </c>
       <c r="E12" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -5607,7 +5607,7 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F13" t="s">
         <v>53</v>
@@ -5648,7 +5648,7 @@
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -5689,7 +5689,7 @@
         <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -5730,7 +5730,7 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -5771,7 +5771,7 @@
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F17" t="s">
         <v>67</v>
@@ -5812,7 +5812,7 @@
         <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F18" t="s">
         <v>71</v>
@@ -5853,7 +5853,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -5894,7 +5894,7 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F20" t="s">
         <v>79</v>
@@ -5935,7 +5935,7 @@
         <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F21" t="s">
         <v>42</v>
@@ -5976,7 +5976,7 @@
         <v>86</v>
       </c>
       <c r="E22" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -6017,7 +6017,7 @@
         <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F23" t="s">
         <v>90</v>
@@ -6058,7 +6058,7 @@
         <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -6099,7 +6099,7 @@
         <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F25" t="s">
         <v>34</v>
@@ -6140,7 +6140,7 @@
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F26" t="s">
         <v>101</v>
@@ -6181,7 +6181,7 @@
         <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F27" t="s">
         <v>42</v>
@@ -6222,7 +6222,7 @@
         <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F28" t="s">
         <v>42</v>
@@ -6263,7 +6263,7 @@
         <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F29" t="s">
         <v>113</v>
@@ -6304,7 +6304,7 @@
         <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
@@ -6345,7 +6345,7 @@
         <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -6386,7 +6386,7 @@
         <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F32" t="s">
         <v>101</v>
@@ -6427,7 +6427,7 @@
         <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F33" t="s">
         <v>21</v>
@@ -6468,7 +6468,7 @@
         <v>129</v>
       </c>
       <c r="E34" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -6509,7 +6509,7 @@
         <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F35" t="s">
         <v>67</v>
@@ -6550,7 +6550,7 @@
         <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -6591,7 +6591,7 @@
         <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F37" t="s">
         <v>42</v>
@@ -6632,7 +6632,7 @@
         <v>141</v>
       </c>
       <c r="E38" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -6673,7 +6673,7 @@
         <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F39" t="s">
         <v>21</v>
@@ -6714,7 +6714,7 @@
         <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -6755,7 +6755,7 @@
         <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F41" t="s">
         <v>21</v>
@@ -6796,7 +6796,7 @@
         <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
@@ -6837,7 +6837,7 @@
         <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -6878,7 +6878,7 @@
         <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F44" t="s">
         <v>67</v>
@@ -6919,7 +6919,7 @@
         <v>164</v>
       </c>
       <c r="E45" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F45" t="s">
         <v>101</v>
@@ -6960,7 +6960,7 @@
         <v>167</v>
       </c>
       <c r="E46" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F46" t="s">
         <v>168</v>
@@ -7001,7 +7001,7 @@
         <v>171</v>
       </c>
       <c r="E47" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F47" t="s">
         <v>172</v>
@@ -7042,7 +7042,7 @@
         <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F48" t="s">
         <v>172</v>
@@ -7083,7 +7083,7 @@
         <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F49" t="s">
         <v>178</v>
@@ -7124,7 +7124,7 @@
         <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
@@ -7165,7 +7165,7 @@
         <v>184</v>
       </c>
       <c r="E51" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
@@ -7206,7 +7206,7 @@
         <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F52" t="s">
         <v>172</v>
@@ -7247,7 +7247,7 @@
         <v>190</v>
       </c>
       <c r="E53" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F53" t="s">
         <v>191</v>
@@ -7288,7 +7288,7 @@
         <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F54" t="s">
         <v>42</v>
@@ -7329,7 +7329,7 @@
         <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F55" t="s">
         <v>199</v>
@@ -7370,7 +7370,7 @@
         <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F56" t="s">
         <v>101</v>
@@ -7411,7 +7411,7 @@
         <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F57" t="s">
         <v>21</v>
@@ -7452,7 +7452,7 @@
         <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F58" t="s">
         <v>113</v>
@@ -7493,7 +7493,7 @@
         <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F59" t="s">
         <v>113</v>
@@ -7534,7 +7534,7 @@
         <v>216</v>
       </c>
       <c r="E60" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F60" t="s">
         <v>217</v>
@@ -7575,7 +7575,7 @@
         <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -7616,7 +7616,7 @@
         <v>223</v>
       </c>
       <c r="E62" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F62" t="s">
         <v>224</v>
@@ -7657,7 +7657,7 @@
         <v>227</v>
       </c>
       <c r="E63" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F63" t="s">
         <v>199</v>
@@ -7698,7 +7698,7 @@
         <v>231</v>
       </c>
       <c r="E64" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F64" t="s">
         <v>21</v>
@@ -7739,7 +7739,7 @@
         <v>234</v>
       </c>
       <c r="E65" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F65" t="s">
         <v>191</v>
@@ -7780,7 +7780,7 @@
         <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
@@ -7821,7 +7821,7 @@
         <v>241</v>
       </c>
       <c r="E67" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F67" t="s">
         <v>53</v>
@@ -7862,7 +7862,7 @@
         <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -7903,7 +7903,7 @@
         <v>247</v>
       </c>
       <c r="E69" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F69" t="s">
         <v>224</v>
@@ -7944,7 +7944,7 @@
         <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
@@ -7985,7 +7985,7 @@
         <v>253</v>
       </c>
       <c r="E71" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F71" t="s">
         <v>254</v>
@@ -8026,7 +8026,7 @@
         <v>257</v>
       </c>
       <c r="E72" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F72" t="s">
         <v>258</v>
@@ -8067,7 +8067,7 @@
         <v>261</v>
       </c>
       <c r="E73" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F73" t="s">
         <v>217</v>
@@ -8108,7 +8108,7 @@
         <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -8149,7 +8149,7 @@
         <v>267</v>
       </c>
       <c r="E75" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F75" t="s">
         <v>199</v>
@@ -8190,7 +8190,7 @@
         <v>270</v>
       </c>
       <c r="E76" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F76" t="s">
         <v>271</v>
@@ -8231,7 +8231,7 @@
         <v>274</v>
       </c>
       <c r="E77" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F77" t="s">
         <v>42</v>
@@ -8272,7 +8272,7 @@
         <v>277</v>
       </c>
       <c r="E78" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F78" t="s">
         <v>42</v>
@@ -8313,7 +8313,7 @@
         <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F79" t="s">
         <v>101</v>
@@ -8354,7 +8354,7 @@
         <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F80" t="s">
         <v>101</v>
@@ -8395,7 +8395,7 @@
         <v>285</v>
       </c>
       <c r="E81" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -8436,7 +8436,7 @@
         <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F82" t="s">
         <v>217</v>
@@ -8477,7 +8477,7 @@
         <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F83" t="s">
         <v>21</v>
@@ -8518,7 +8518,7 @@
         <v>295</v>
       </c>
       <c r="E84" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F84" t="s">
         <v>296</v>
@@ -8559,7 +8559,7 @@
         <v>300</v>
       </c>
       <c r="E85" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F85" t="s">
         <v>42</v>
@@ -8600,7 +8600,7 @@
         <v>303</v>
       </c>
       <c r="E86" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F86" t="s">
         <v>172</v>
@@ -8641,7 +8641,7 @@
         <v>306</v>
       </c>
       <c r="E87" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F87" t="s">
         <v>307</v>
@@ -8682,7 +8682,7 @@
         <v>310</v>
       </c>
       <c r="E88" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F88" t="s">
         <v>307</v>
@@ -8723,7 +8723,7 @@
         <v>314</v>
       </c>
       <c r="E89" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F89" t="s">
         <v>315</v>
@@ -8764,7 +8764,7 @@
         <v>318</v>
       </c>
       <c r="E90" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F90" t="s">
         <v>319</v>
@@ -8805,7 +8805,7 @@
         <v>322</v>
       </c>
       <c r="E91" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F91" t="s">
         <v>323</v>
@@ -8846,7 +8846,7 @@
         <v>326</v>
       </c>
       <c r="E92" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F92" t="s">
         <v>319</v>
@@ -8887,7 +8887,7 @@
         <v>329</v>
       </c>
       <c r="E93" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F93" t="s">
         <v>21</v>
@@ -8928,7 +8928,7 @@
         <v>332</v>
       </c>
       <c r="E94" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -8969,7 +8969,7 @@
         <v>335</v>
       </c>
       <c r="E95" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -9010,7 +9010,7 @@
         <v>339</v>
       </c>
       <c r="E96" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F96" t="s">
         <v>307</v>
@@ -9051,7 +9051,7 @@
         <v>342</v>
       </c>
       <c r="E97" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F97" t="s">
         <v>271</v>
@@ -9092,7 +9092,7 @@
         <v>345</v>
       </c>
       <c r="E98" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
@@ -9133,7 +9133,7 @@
         <v>348</v>
       </c>
       <c r="E99" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F99" t="s">
         <v>71</v>
@@ -9174,7 +9174,7 @@
         <v>351</v>
       </c>
       <c r="E100" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F100" t="s">
         <v>307</v>
@@ -9215,7 +9215,7 @@
         <v>355</v>
       </c>
       <c r="E101" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F101" t="s">
         <v>34</v>
@@ -9256,7 +9256,7 @@
         <v>358</v>
       </c>
       <c r="E102" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F102" t="s">
         <v>34</v>
@@ -9297,7 +9297,7 @@
         <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F103" t="s">
         <v>362</v>
@@ -9338,7 +9338,7 @@
         <v>365</v>
       </c>
       <c r="E104" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F104" t="s">
         <v>21</v>
@@ -9379,7 +9379,7 @@
         <v>368</v>
       </c>
       <c r="E105" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F105" t="s">
         <v>21</v>
@@ -9420,7 +9420,7 @@
         <v>371</v>
       </c>
       <c r="E106" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F106" t="s">
         <v>21</v>
@@ -9461,7 +9461,7 @@
         <v>374</v>
       </c>
       <c r="E107" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -9502,7 +9502,7 @@
         <v>377</v>
       </c>
       <c r="E108" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F108" t="s">
         <v>378</v>
@@ -9543,7 +9543,7 @@
         <v>381</v>
       </c>
       <c r="E109" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F109" t="s">
         <v>30</v>
@@ -9584,7 +9584,7 @@
         <v>385</v>
       </c>
       <c r="E110" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F110" t="s">
         <v>38</v>
@@ -9625,7 +9625,7 @@
         <v>388</v>
       </c>
       <c r="E111" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F111" t="s">
         <v>389</v>
@@ -9666,7 +9666,7 @@
         <v>392</v>
       </c>
       <c r="E112" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F112" t="s">
         <v>49</v>
@@ -9707,7 +9707,7 @@
         <v>395</v>
       </c>
       <c r="E113" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F113" t="s">
         <v>396</v>
@@ -9748,7 +9748,7 @@
         <v>399</v>
       </c>
       <c r="E114" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
@@ -9789,7 +9789,7 @@
         <v>402</v>
       </c>
       <c r="E115" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F115" t="s">
         <v>21</v>
@@ -9830,7 +9830,7 @@
         <v>405</v>
       </c>
       <c r="E116" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F116" t="s">
         <v>406</v>
@@ -9871,7 +9871,7 @@
         <v>409</v>
       </c>
       <c r="E117" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F117" t="s">
         <v>21</v>
@@ -9912,7 +9912,7 @@
         <v>412</v>
       </c>
       <c r="E118" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F118" t="s">
         <v>34</v>
@@ -9953,7 +9953,7 @@
         <v>415</v>
       </c>
       <c r="E119" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -9994,7 +9994,7 @@
         <v>418</v>
       </c>
       <c r="E120" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -10035,7 +10035,7 @@
         <v>421</v>
       </c>
       <c r="E121" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F121" t="s">
         <v>21</v>
@@ -10076,7 +10076,7 @@
         <v>424</v>
       </c>
       <c r="E122" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F122" t="s">
         <v>26</v>
@@ -10117,7 +10117,7 @@
         <v>427</v>
       </c>
       <c r="E123" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F123" t="s">
         <v>42</v>
@@ -10158,7 +10158,7 @@
         <v>431</v>
       </c>
       <c r="E124" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F124" t="s">
         <v>199</v>
@@ -10199,7 +10199,7 @@
         <v>434</v>
       </c>
       <c r="E125" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F125" t="s">
         <v>90</v>
@@ -10240,7 +10240,7 @@
         <v>437</v>
       </c>
       <c r="E126" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -10281,7 +10281,7 @@
         <v>440</v>
       </c>
       <c r="E127" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F127" t="s">
         <v>42</v>
@@ -10322,7 +10322,7 @@
         <v>443</v>
       </c>
       <c r="E128" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F128" t="s">
         <v>21</v>
@@ -10363,7 +10363,7 @@
         <v>446</v>
       </c>
       <c r="E129" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
@@ -10404,7 +10404,7 @@
         <v>450</v>
       </c>
       <c r="E130" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
@@ -10445,7 +10445,7 @@
         <v>453</v>
       </c>
       <c r="E131" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F131" t="s">
         <v>38</v>
@@ -10486,7 +10486,7 @@
         <v>456</v>
       </c>
       <c r="E132" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F132" t="s">
         <v>21</v>
@@ -10524,10 +10524,10 @@
         <v>457</v>
       </c>
       <c r="D133" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="E133" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F133" t="s">
         <v>26</v>
@@ -10568,7 +10568,7 @@
         <v>461</v>
       </c>
       <c r="E134" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F134" t="s">
         <v>38</v>
@@ -10609,7 +10609,7 @@
         <v>463</v>
       </c>
       <c r="E135" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F135" t="s">
         <v>38</v>
@@ -10650,7 +10650,7 @@
         <v>466</v>
       </c>
       <c r="E136" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F136" t="s">
         <v>42</v>
@@ -10691,7 +10691,7 @@
         <v>470</v>
       </c>
       <c r="E137" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F137" t="s">
         <v>34</v>
@@ -10732,7 +10732,7 @@
         <v>473</v>
       </c>
       <c r="E138" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F138" t="s">
         <v>307</v>
@@ -10773,7 +10773,7 @@
         <v>477</v>
       </c>
       <c r="E139" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F139" t="s">
         <v>378</v>
@@ -10814,7 +10814,7 @@
         <v>481</v>
       </c>
       <c r="E140" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F140" t="s">
         <v>38</v>
@@ -10855,7 +10855,7 @@
         <v>484</v>
       </c>
       <c r="E141" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F141" t="s">
         <v>71</v>
@@ -10896,7 +10896,7 @@
         <v>487</v>
       </c>
       <c r="E142" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F142" t="s">
         <v>79</v>
@@ -10937,7 +10937,7 @@
         <v>490</v>
       </c>
       <c r="E143" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -10978,7 +10978,7 @@
         <v>493</v>
       </c>
       <c r="E144" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F144" t="s">
         <v>271</v>
@@ -11019,7 +11019,7 @@
         <v>496</v>
       </c>
       <c r="E145" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F145" t="s">
         <v>71</v>
@@ -11060,7 +11060,7 @@
         <v>500</v>
       </c>
       <c r="E146" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F146" t="s">
         <v>396</v>
@@ -11101,7 +11101,7 @@
         <v>504</v>
       </c>
       <c r="E147" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F147" t="s">
         <v>396</v>
@@ -11142,7 +11142,7 @@
         <v>507</v>
       </c>
       <c r="E148" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F148" t="s">
         <v>42</v>
@@ -11183,7 +11183,7 @@
         <v>510</v>
       </c>
       <c r="E149" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F149" t="s">
         <v>21</v>
@@ -11224,7 +11224,7 @@
         <v>513</v>
       </c>
       <c r="E150" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F150" t="s">
         <v>21</v>
@@ -11265,7 +11265,7 @@
         <v>516</v>
       </c>
       <c r="E151" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F151" t="s">
         <v>396</v>
@@ -11306,7 +11306,7 @@
         <v>518</v>
       </c>
       <c r="E152" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F152" t="s">
         <v>396</v>
@@ -11347,7 +11347,7 @@
         <v>521</v>
       </c>
       <c r="E153" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F153" t="s">
         <v>199</v>
@@ -11388,7 +11388,7 @@
         <v>524</v>
       </c>
       <c r="E154" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F154" t="s">
         <v>30</v>
@@ -11429,7 +11429,7 @@
         <v>527</v>
       </c>
       <c r="E155" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F155" t="s">
         <v>53</v>
@@ -11470,7 +11470,7 @@
         <v>531</v>
       </c>
       <c r="E156" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F156" t="s">
         <v>113</v>
@@ -11511,7 +11511,7 @@
         <v>534</v>
       </c>
       <c r="E157" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F157" t="s">
         <v>21</v>
@@ -11552,7 +11552,7 @@
         <v>537</v>
       </c>
       <c r="E158" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F158" t="s">
         <v>271</v>
@@ -11593,7 +11593,7 @@
         <v>540</v>
       </c>
       <c r="E159" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F159" t="s">
         <v>53</v>
@@ -11634,7 +11634,7 @@
         <v>543</v>
       </c>
       <c r="E160" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F160" t="s">
         <v>378</v>
@@ -11675,7 +11675,7 @@
         <v>546</v>
       </c>
       <c r="E161" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F161" t="s">
         <v>547</v>
@@ -11716,7 +11716,7 @@
         <v>550</v>
       </c>
       <c r="E162" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F162" t="s">
         <v>21</v>
@@ -11757,7 +11757,7 @@
         <v>553</v>
       </c>
       <c r="E163" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F163" t="s">
         <v>30</v>
@@ -11798,7 +11798,7 @@
         <v>556</v>
       </c>
       <c r="E164" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F164" t="s">
         <v>547</v>
@@ -11839,7 +11839,7 @@
         <v>559</v>
       </c>
       <c r="E165" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F165" t="s">
         <v>396</v>
@@ -11880,7 +11880,7 @@
         <v>562</v>
       </c>
       <c r="E166" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F166" t="s">
         <v>563</v>
@@ -11921,7 +11921,7 @@
         <v>567</v>
       </c>
       <c r="E167" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -11962,7 +11962,7 @@
         <v>570</v>
       </c>
       <c r="E168" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F168" t="s">
         <v>571</v>
@@ -12003,7 +12003,7 @@
         <v>574</v>
       </c>
       <c r="E169" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F169" t="s">
         <v>199</v>
@@ -12044,7 +12044,7 @@
         <v>577</v>
       </c>
       <c r="E170" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F170" t="s">
         <v>71</v>
@@ -12085,7 +12085,7 @@
         <v>580</v>
       </c>
       <c r="E171" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F171" t="s">
         <v>21</v>
@@ -12126,7 +12126,7 @@
         <v>583</v>
       </c>
       <c r="E172" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F172" t="s">
         <v>113</v>
@@ -12167,7 +12167,7 @@
         <v>587</v>
       </c>
       <c r="E173" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F173" t="s">
         <v>307</v>
@@ -12208,7 +12208,7 @@
         <v>590</v>
       </c>
       <c r="E174" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F174" t="s">
         <v>38</v>
@@ -12249,7 +12249,7 @@
         <v>593</v>
       </c>
       <c r="E175" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F175" t="s">
         <v>17</v>
@@ -12290,7 +12290,7 @@
         <v>596</v>
       </c>
       <c r="E176" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
@@ -12331,7 +12331,7 @@
         <v>600</v>
       </c>
       <c r="E177" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F177" t="s">
         <v>113</v>
@@ -12372,7 +12372,7 @@
         <v>604</v>
       </c>
       <c r="E178" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F178" t="s">
         <v>113</v>
@@ -12413,7 +12413,7 @@
         <v>608</v>
       </c>
       <c r="E179" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F179" t="s">
         <v>113</v>
@@ -12454,7 +12454,7 @@
         <v>612</v>
       </c>
       <c r="E180" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F180" t="s">
         <v>113</v>
@@ -12495,7 +12495,7 @@
         <v>615</v>
       </c>
       <c r="E181" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F181" t="s">
         <v>113</v>
@@ -12536,7 +12536,7 @@
         <v>619</v>
       </c>
       <c r="E182" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F182" t="s">
         <v>113</v>
@@ -12577,7 +12577,7 @@
         <v>623</v>
       </c>
       <c r="E183" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F183" t="s">
         <v>113</v>
@@ -12618,7 +12618,7 @@
         <v>627</v>
       </c>
       <c r="E184" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F184" t="s">
         <v>113</v>
@@ -12659,7 +12659,7 @@
         <v>631</v>
       </c>
       <c r="E185" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F185" t="s">
         <v>113</v>
@@ -12700,7 +12700,7 @@
         <v>635</v>
       </c>
       <c r="E186" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F186" t="s">
         <v>113</v>
@@ -12741,7 +12741,7 @@
         <v>639</v>
       </c>
       <c r="E187" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F187" t="s">
         <v>113</v>
@@ -12782,7 +12782,7 @@
         <v>642</v>
       </c>
       <c r="E188" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F188" t="s">
         <v>389</v>
@@ -12823,7 +12823,7 @@
         <v>649</v>
       </c>
       <c r="E189" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F189" t="s">
         <v>21</v>
@@ -12864,7 +12864,7 @@
         <v>652</v>
       </c>
       <c r="E190" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F190" t="s">
         <v>191</v>
@@ -12905,7 +12905,7 @@
         <v>655</v>
       </c>
       <c r="E191" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F191" t="s">
         <v>17</v>
@@ -12946,7 +12946,7 @@
         <v>659</v>
       </c>
       <c r="E192" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F192" t="s">
         <v>34</v>
@@ -12987,7 +12987,7 @@
         <v>662</v>
       </c>
       <c r="E193" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F193" t="s">
         <v>663</v>
@@ -13028,7 +13028,7 @@
         <v>666</v>
       </c>
       <c r="E194" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F194" t="s">
         <v>12</v>
@@ -13069,7 +13069,7 @@
         <v>669</v>
       </c>
       <c r="E195" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F195" t="s">
         <v>199</v>
@@ -13110,7 +13110,7 @@
         <v>673</v>
       </c>
       <c r="E196" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F196" t="s">
         <v>21</v>
@@ -13151,7 +13151,7 @@
         <v>676</v>
       </c>
       <c r="E197" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F197" t="s">
         <v>17</v>
@@ -13192,7 +13192,7 @@
         <v>679</v>
       </c>
       <c r="E198" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F198" t="s">
         <v>17</v>
@@ -13233,7 +13233,7 @@
         <v>682</v>
       </c>
       <c r="E199" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F199" t="s">
         <v>307</v>
@@ -13274,7 +13274,7 @@
         <v>686</v>
       </c>
       <c r="E200" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F200" t="s">
         <v>42</v>
@@ -13315,7 +13315,7 @@
         <v>690</v>
       </c>
       <c r="E201" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F201" t="s">
         <v>691</v>
@@ -13356,7 +13356,7 @@
         <v>694</v>
       </c>
       <c r="E202" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F202" t="s">
         <v>691</v>
@@ -13397,7 +13397,7 @@
         <v>698</v>
       </c>
       <c r="E203" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F203" t="s">
         <v>315</v>
@@ -13438,7 +13438,7 @@
         <v>701</v>
       </c>
       <c r="E204" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F204" t="s">
         <v>71</v>
@@ -13479,7 +13479,7 @@
         <v>704</v>
       </c>
       <c r="E205" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F205" t="s">
         <v>42</v>
@@ -13520,7 +13520,7 @@
         <v>707</v>
       </c>
       <c r="E206" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F206" t="s">
         <v>254</v>
@@ -13561,7 +13561,7 @@
         <v>710</v>
       </c>
       <c r="E207" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F207" t="s">
         <v>17</v>
@@ -13602,7 +13602,7 @@
         <v>713</v>
       </c>
       <c r="E208" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F208" t="s">
         <v>17</v>
@@ -13643,7 +13643,7 @@
         <v>716</v>
       </c>
       <c r="E209" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F209" t="s">
         <v>21</v>
@@ -13684,7 +13684,7 @@
         <v>719</v>
       </c>
       <c r="E210" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F210" t="s">
         <v>21</v>
@@ -13725,7 +13725,7 @@
         <v>722</v>
       </c>
       <c r="E211" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F211" t="s">
         <v>12</v>
@@ -13766,7 +13766,7 @@
         <v>725</v>
       </c>
       <c r="E212" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F212" t="s">
         <v>12</v>
@@ -13807,7 +13807,7 @@
         <v>729</v>
       </c>
       <c r="E213" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F213" t="s">
         <v>271</v>
@@ -13848,7 +13848,7 @@
         <v>732</v>
       </c>
       <c r="E214" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F214" t="s">
         <v>271</v>
@@ -13889,7 +13889,7 @@
         <v>735</v>
       </c>
       <c r="E215" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F215" t="s">
         <v>53</v>
@@ -13930,7 +13930,7 @@
         <v>738</v>
       </c>
       <c r="E216" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F216" t="s">
         <v>739</v>
@@ -13971,7 +13971,7 @@
         <v>742</v>
       </c>
       <c r="E217" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F217" t="s">
         <v>571</v>
@@ -14012,7 +14012,7 @@
         <v>745</v>
       </c>
       <c r="E218" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F218" t="s">
         <v>42</v>
@@ -14053,7 +14053,7 @@
         <v>748</v>
       </c>
       <c r="E219" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F219" t="s">
         <v>30</v>
@@ -14094,7 +14094,7 @@
         <v>751</v>
       </c>
       <c r="E220" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F220" t="s">
         <v>752</v>
@@ -14135,7 +14135,7 @@
         <v>755</v>
       </c>
       <c r="E221" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F221" t="s">
         <v>319</v>
@@ -14176,7 +14176,7 @@
         <v>758</v>
       </c>
       <c r="E222" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F222" t="s">
         <v>258</v>
@@ -14217,7 +14217,7 @@
         <v>761</v>
       </c>
       <c r="E223" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F223" t="s">
         <v>258</v>
@@ -14258,7 +14258,7 @@
         <v>764</v>
       </c>
       <c r="E224" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F224" t="s">
         <v>172</v>
@@ -14299,7 +14299,7 @@
         <v>767</v>
       </c>
       <c r="E225" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F225" t="s">
         <v>38</v>
@@ -14340,7 +14340,7 @@
         <v>770</v>
       </c>
       <c r="E226" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F226" t="s">
         <v>258</v>
@@ -14381,7 +14381,7 @@
         <v>773</v>
       </c>
       <c r="E227" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F227" t="s">
         <v>172</v>
@@ -14422,7 +14422,7 @@
         <v>776</v>
       </c>
       <c r="E228" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F228" t="s">
         <v>42</v>
@@ -14460,10 +14460,10 @@
         <v>777</v>
       </c>
       <c r="D229" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E229" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F229" t="s">
         <v>30</v>
@@ -14504,7 +14504,7 @@
         <v>781</v>
       </c>
       <c r="E230" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F230" t="s">
         <v>79</v>
@@ -14545,7 +14545,7 @@
         <v>784</v>
       </c>
       <c r="E231" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F231" t="s">
         <v>71</v>
@@ -14586,7 +14586,7 @@
         <v>787</v>
       </c>
       <c r="E232" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F232" t="s">
         <v>38</v>
@@ -14627,7 +14627,7 @@
         <v>791</v>
       </c>
       <c r="E233" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F233" t="s">
         <v>792</v>
@@ -14668,7 +14668,7 @@
         <v>791</v>
       </c>
       <c r="E234" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F234" t="s">
         <v>792</v>
@@ -14709,7 +14709,7 @@
         <v>798</v>
       </c>
       <c r="E235" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F235" t="s">
         <v>199</v>
@@ -14750,7 +14750,7 @@
         <v>801</v>
       </c>
       <c r="E236" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F236" t="s">
         <v>17</v>
@@ -14791,7 +14791,7 @@
         <v>804</v>
       </c>
       <c r="E237" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F237" t="s">
         <v>805</v>
@@ -14832,7 +14832,7 @@
         <v>808</v>
       </c>
       <c r="E238" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F238" t="s">
         <v>21</v>
@@ -14873,7 +14873,7 @@
         <v>811</v>
       </c>
       <c r="E239" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F239" t="s">
         <v>34</v>
@@ -14914,7 +14914,7 @@
         <v>814</v>
       </c>
       <c r="E240" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F240" t="s">
         <v>53</v>
@@ -14955,7 +14955,7 @@
         <v>817</v>
       </c>
       <c r="E241" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F241" t="s">
         <v>21</v>
@@ -14996,7 +14996,7 @@
         <v>820</v>
       </c>
       <c r="E242" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F242" t="s">
         <v>389</v>
@@ -15037,7 +15037,7 @@
         <v>823</v>
       </c>
       <c r="E243" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F243" t="s">
         <v>17</v>
@@ -15078,7 +15078,7 @@
         <v>826</v>
       </c>
       <c r="E244" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F244" t="s">
         <v>21</v>
@@ -15119,7 +15119,7 @@
         <v>829</v>
       </c>
       <c r="E245" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F245" t="s">
         <v>42</v>
@@ -15160,7 +15160,7 @@
         <v>832</v>
       </c>
       <c r="E246" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F246" t="s">
         <v>113</v>
@@ -15201,7 +15201,7 @@
         <v>835</v>
       </c>
       <c r="E247" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F247" t="s">
         <v>42</v>
@@ -15242,7 +15242,7 @@
         <v>837</v>
       </c>
       <c r="E248" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F248" t="s">
         <v>30</v>
@@ -15283,7 +15283,7 @@
         <v>840</v>
       </c>
       <c r="E249" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F249" t="s">
         <v>21</v>
@@ -15324,7 +15324,7 @@
         <v>843</v>
       </c>
       <c r="E250" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F250" t="s">
         <v>42</v>
@@ -15365,7 +15365,7 @@
         <v>847</v>
       </c>
       <c r="E251" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F251" t="s">
         <v>848</v>
@@ -15406,7 +15406,7 @@
         <v>851</v>
       </c>
       <c r="E252" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F252" t="s">
         <v>101</v>
@@ -15447,7 +15447,7 @@
         <v>854</v>
       </c>
       <c r="E253" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F253" t="s">
         <v>21</v>
@@ -15488,7 +15488,7 @@
         <v>857</v>
       </c>
       <c r="E254" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F254" t="s">
         <v>21</v>
@@ -15529,7 +15529,7 @@
         <v>860</v>
       </c>
       <c r="E255" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F255" t="s">
         <v>34</v>
@@ -15570,7 +15570,7 @@
         <v>863</v>
       </c>
       <c r="E256" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F256" t="s">
         <v>30</v>
@@ -15611,7 +15611,7 @@
         <v>866</v>
       </c>
       <c r="E257" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F257" t="s">
         <v>21</v>
@@ -15652,7 +15652,7 @@
         <v>869</v>
       </c>
       <c r="E258" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F258" t="s">
         <v>17</v>
@@ -15693,7 +15693,7 @@
         <v>872</v>
       </c>
       <c r="E259" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F259" t="s">
         <v>30</v>
@@ -15734,7 +15734,7 @@
         <v>875</v>
       </c>
       <c r="E260" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F260" t="s">
         <v>71</v>
@@ -15775,7 +15775,7 @@
         <v>878</v>
       </c>
       <c r="E261" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F261" t="s">
         <v>879</v>
@@ -15816,7 +15816,7 @@
         <v>882</v>
       </c>
       <c r="E262" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F262" t="s">
         <v>101</v>
@@ -15857,7 +15857,7 @@
         <v>885</v>
       </c>
       <c r="E263" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F263" t="s">
         <v>42</v>
@@ -15898,7 +15898,7 @@
         <v>888</v>
       </c>
       <c r="E264" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F264" t="s">
         <v>30</v>
@@ -15939,7 +15939,7 @@
         <v>891</v>
       </c>
       <c r="E265" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F265" t="s">
         <v>42</v>
@@ -15980,7 +15980,7 @@
         <v>894</v>
       </c>
       <c r="E266" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F266" t="s">
         <v>378</v>
@@ -16021,7 +16021,7 @@
         <v>897</v>
       </c>
       <c r="E267" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F267" t="s">
         <v>30</v>
@@ -16062,7 +16062,7 @@
         <v>900</v>
       </c>
       <c r="E268" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F268" t="s">
         <v>101</v>
@@ -16103,7 +16103,7 @@
         <v>903</v>
       </c>
       <c r="E269" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F269" t="s">
         <v>172</v>
@@ -16144,7 +16144,7 @@
         <v>906</v>
       </c>
       <c r="E270" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F270" t="s">
         <v>739</v>
@@ -16185,7 +16185,7 @@
         <v>909</v>
       </c>
       <c r="E271" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F271" t="s">
         <v>17</v>
@@ -16226,7 +16226,7 @@
         <v>912</v>
       </c>
       <c r="E272" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F272" t="s">
         <v>792</v>
@@ -16267,7 +16267,7 @@
         <v>915</v>
       </c>
       <c r="E273" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F273" t="s">
         <v>271</v>
@@ -16308,7 +16308,7 @@
         <v>918</v>
       </c>
       <c r="E274" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F274" t="s">
         <v>307</v>
@@ -16349,7 +16349,7 @@
         <v>921</v>
       </c>
       <c r="E275" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F275" t="s">
         <v>71</v>
@@ -16390,7 +16390,7 @@
         <v>924</v>
       </c>
       <c r="E276" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F276" t="s">
         <v>925</v>
@@ -16431,7 +16431,7 @@
         <v>928</v>
       </c>
       <c r="E277" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F277" t="s">
         <v>805</v>
@@ -16472,7 +16472,7 @@
         <v>931</v>
       </c>
       <c r="E278" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F278" t="s">
         <v>113</v>
@@ -16513,7 +16513,7 @@
         <v>934</v>
       </c>
       <c r="E279" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F279" t="s">
         <v>34</v>
@@ -16554,7 +16554,7 @@
         <v>937</v>
       </c>
       <c r="E280" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F280" t="s">
         <v>12</v>
@@ -16595,7 +16595,7 @@
         <v>940</v>
       </c>
       <c r="E281" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F281" t="s">
         <v>199</v>
@@ -16636,7 +16636,7 @@
         <v>943</v>
       </c>
       <c r="E282" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F282" t="s">
         <v>258</v>
@@ -16677,7 +16677,7 @@
         <v>946</v>
       </c>
       <c r="E283" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F283" t="s">
         <v>21</v>
@@ -16718,7 +16718,7 @@
         <v>949</v>
       </c>
       <c r="E284" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F284" t="s">
         <v>42</v>
@@ -16759,7 +16759,7 @@
         <v>952</v>
       </c>
       <c r="E285" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F285" t="s">
         <v>42</v>
@@ -16800,7 +16800,7 @@
         <v>955</v>
       </c>
       <c r="E286" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F286" t="s">
         <v>17</v>
@@ -16841,7 +16841,7 @@
         <v>958</v>
       </c>
       <c r="E287" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F287" t="s">
         <v>17</v>
@@ -16882,7 +16882,7 @@
         <v>961</v>
       </c>
       <c r="E288" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F288" t="s">
         <v>21</v>
@@ -16923,7 +16923,7 @@
         <v>964</v>
       </c>
       <c r="E289" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F289" t="s">
         <v>21</v>
@@ -16964,7 +16964,7 @@
         <v>967</v>
       </c>
       <c r="E290" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F290" t="s">
         <v>21</v>
@@ -17005,7 +17005,7 @@
         <v>970</v>
       </c>
       <c r="E291" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F291" t="s">
         <v>12</v>
@@ -17046,7 +17046,7 @@
         <v>973</v>
       </c>
       <c r="E292" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F292" t="s">
         <v>30</v>
@@ -17087,7 +17087,7 @@
         <v>365</v>
       </c>
       <c r="E293" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F293" t="s">
         <v>21</v>
@@ -17125,10 +17125,10 @@
         <v>978</v>
       </c>
       <c r="D294" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E294" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F294" t="s">
         <v>42</v>
@@ -17169,7 +17169,7 @@
         <v>981</v>
       </c>
       <c r="E295" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F295" t="s">
         <v>38</v>
@@ -17210,7 +17210,7 @@
         <v>984</v>
       </c>
       <c r="E296" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F296" t="s">
         <v>21</v>
@@ -17251,7 +17251,7 @@
         <v>988</v>
       </c>
       <c r="E297" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F297" t="s">
         <v>42</v>
@@ -17292,7 +17292,7 @@
         <v>991</v>
       </c>
       <c r="E298" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F298" t="s">
         <v>42</v>
@@ -17333,7 +17333,7 @@
         <v>994</v>
       </c>
       <c r="E299" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F299" t="s">
         <v>995</v>
@@ -17374,7 +17374,7 @@
         <v>998</v>
       </c>
       <c r="E300" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F300" t="s">
         <v>999</v>
@@ -17415,7 +17415,7 @@
         <v>1002</v>
       </c>
       <c r="E301" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F301" t="s">
         <v>42</v>
@@ -17456,7 +17456,7 @@
         <v>1005</v>
       </c>
       <c r="E302" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F302" t="s">
         <v>113</v>
@@ -17497,7 +17497,7 @@
         <v>1008</v>
       </c>
       <c r="E303" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F303" t="s">
         <v>42</v>
@@ -17538,7 +17538,7 @@
         <v>1011</v>
       </c>
       <c r="E304" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F304" t="s">
         <v>168</v>
@@ -17579,7 +17579,7 @@
         <v>1014</v>
       </c>
       <c r="E305" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F305" t="s">
         <v>49</v>
@@ -17620,7 +17620,7 @@
         <v>1017</v>
       </c>
       <c r="E306" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F306" t="s">
         <v>271</v>
@@ -17661,7 +17661,7 @@
         <v>1020</v>
       </c>
       <c r="E307" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F307" t="s">
         <v>30</v>
@@ -17702,7 +17702,7 @@
         <v>1023</v>
       </c>
       <c r="E308" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F308" t="s">
         <v>12</v>
@@ -17743,7 +17743,7 @@
         <v>1026</v>
       </c>
       <c r="E309" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F309" t="s">
         <v>21</v>
@@ -17784,7 +17784,7 @@
         <v>1029</v>
       </c>
       <c r="E310" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F310" t="s">
         <v>1030</v>
@@ -17825,7 +17825,7 @@
         <v>1033</v>
       </c>
       <c r="E311" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F311" t="s">
         <v>42</v>
@@ -17863,10 +17863,10 @@
         <v>1036</v>
       </c>
       <c r="D312" t="s">
-        <v>1037</v>
+        <v>1401</v>
       </c>
       <c r="E312" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F312" t="s">
         <v>21</v>
@@ -17895,19 +17895,19 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B313" t="s">
         <v>1038</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D313" t="s">
         <v>1039</v>
       </c>
-      <c r="C313" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1040</v>
-      </c>
       <c r="E313" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F313" t="s">
         <v>49</v>
@@ -17936,19 +17936,19 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B314" t="s">
         <v>1041</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D314" t="s">
         <v>1042</v>
       </c>
-      <c r="C314" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D314" t="s">
-        <v>1043</v>
-      </c>
       <c r="E314" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F314" t="s">
         <v>378</v>
@@ -17977,19 +17977,19 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B315" t="s">
         <v>1044</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D315" t="s">
         <v>1045</v>
       </c>
-      <c r="C315" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1046</v>
-      </c>
       <c r="E315" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F315" t="s">
         <v>34</v>
@@ -18018,19 +18018,19 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B316" t="s">
         <v>1047</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D316" t="s">
         <v>1048</v>
       </c>
-      <c r="C316" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1049</v>
-      </c>
       <c r="E316" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F316" t="s">
         <v>17</v>
@@ -18059,19 +18059,19 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B317" t="s">
         <v>1050</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>1051</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
         <v>1052</v>
       </c>
-      <c r="D317" t="s">
-        <v>1053</v>
-      </c>
       <c r="E317" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F317" t="s">
         <v>49</v>
@@ -18100,19 +18100,19 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B318" t="s">
         <v>1054</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D318" t="s">
         <v>1055</v>
       </c>
-      <c r="C318" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1056</v>
-      </c>
       <c r="E318" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F318" t="s">
         <v>49</v>
@@ -18141,19 +18141,19 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B319" t="s">
         <v>1057</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>1058</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>1059</v>
       </c>
-      <c r="D319" t="s">
-        <v>1060</v>
-      </c>
       <c r="E319" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F319" t="s">
         <v>49</v>
@@ -18182,19 +18182,19 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B320" t="s">
         <v>479</v>
       </c>
       <c r="C320" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D320" t="s">
         <v>1061</v>
       </c>
-      <c r="D320" t="s">
-        <v>1062</v>
-      </c>
       <c r="E320" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F320" t="s">
         <v>38</v>
@@ -18223,19 +18223,19 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B321" t="s">
         <v>1063</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D321" t="s">
         <v>1064</v>
       </c>
-      <c r="C321" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1065</v>
-      </c>
       <c r="E321" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F321" t="s">
         <v>26</v>
@@ -18264,19 +18264,19 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B322" t="s">
         <v>1066</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D322" t="s">
         <v>1067</v>
       </c>
-      <c r="C322" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1068</v>
-      </c>
       <c r="E322" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F322" t="s">
         <v>663</v>
@@ -18305,19 +18305,19 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D323" t="s">
         <v>1069</v>
       </c>
-      <c r="B323" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1070</v>
-      </c>
       <c r="E323" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F323" t="s">
         <v>663</v>
@@ -18346,19 +18346,19 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B324" t="s">
         <v>1071</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D324" t="s">
         <v>1072</v>
       </c>
-      <c r="C324" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1073</v>
-      </c>
       <c r="E324" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F324" t="s">
         <v>315</v>
@@ -18387,19 +18387,19 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B325" t="s">
         <v>1074</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D325" t="s">
         <v>1075</v>
       </c>
-      <c r="C325" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1076</v>
-      </c>
       <c r="E325" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F325" t="s">
         <v>30</v>
@@ -18428,19 +18428,19 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B326" t="s">
         <v>1077</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D326" t="s">
         <v>1078</v>
       </c>
-      <c r="C326" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1079</v>
-      </c>
       <c r="E326" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F326" t="s">
         <v>17</v>
@@ -18469,19 +18469,19 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B327" t="s">
         <v>1080</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D327" t="s">
         <v>1081</v>
       </c>
-      <c r="C327" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D327" t="s">
-        <v>1082</v>
-      </c>
       <c r="E327" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F327" t="s">
         <v>38</v>
@@ -18510,19 +18510,19 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B328" t="s">
         <v>1083</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D328" t="s">
         <v>1084</v>
       </c>
-      <c r="C328" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D328" t="s">
-        <v>1085</v>
-      </c>
       <c r="E328" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F328" t="s">
         <v>271</v>
@@ -18551,19 +18551,19 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B329" t="s">
         <v>1086</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D329" t="s">
         <v>1087</v>
       </c>
-      <c r="C329" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1088</v>
-      </c>
       <c r="E329" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F329" t="s">
         <v>101</v>
@@ -18592,19 +18592,19 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B330" t="s">
         <v>1089</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D330" t="s">
         <v>1090</v>
       </c>
-      <c r="C330" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D330" t="s">
-        <v>1091</v>
-      </c>
       <c r="E330" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F330" t="s">
         <v>42</v>
@@ -18633,19 +18633,19 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B331" t="s">
         <v>1092</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>1093</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>1094</v>
       </c>
-      <c r="D331" t="s">
-        <v>1095</v>
-      </c>
       <c r="E331" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F331" t="s">
         <v>199</v>
@@ -18674,19 +18674,19 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B332" t="s">
         <v>1096</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>1097</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>1098</v>
       </c>
-      <c r="D332" t="s">
-        <v>1099</v>
-      </c>
       <c r="E332" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F332" t="s">
         <v>378</v>
@@ -18715,19 +18715,19 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B333" t="s">
         <v>1100</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D333" t="s">
         <v>1101</v>
       </c>
-      <c r="C333" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1102</v>
-      </c>
       <c r="E333" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F333" t="s">
         <v>378</v>
@@ -18756,19 +18756,19 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B334" t="s">
         <v>1103</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D334" t="s">
         <v>1104</v>
       </c>
-      <c r="C334" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1105</v>
-      </c>
       <c r="E334" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F334" t="s">
         <v>217</v>
@@ -18797,19 +18797,19 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B335" t="s">
         <v>1106</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D335" t="s">
         <v>1107</v>
       </c>
-      <c r="C335" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1108</v>
-      </c>
       <c r="E335" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F335" t="s">
         <v>805</v>
@@ -18838,19 +18838,19 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B336" t="s">
         <v>1109</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D336" t="s">
         <v>1110</v>
       </c>
-      <c r="C336" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1111</v>
-      </c>
       <c r="E336" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F336" t="s">
         <v>17</v>
@@ -18879,19 +18879,19 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B337" t="s">
         <v>1112</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D337" t="s">
         <v>1113</v>
       </c>
-      <c r="C337" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D337" t="s">
-        <v>1114</v>
-      </c>
       <c r="E337" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F337" t="s">
         <v>663</v>
@@ -18920,19 +18920,19 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B338" t="s">
         <v>1115</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D338" t="s">
         <v>1116</v>
       </c>
-      <c r="C338" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1117</v>
-      </c>
       <c r="E338" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F338" t="s">
         <v>17</v>
@@ -18961,19 +18961,19 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B339" t="s">
         <v>1118</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D339" t="s">
         <v>1119</v>
       </c>
-      <c r="C339" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1120</v>
-      </c>
       <c r="E339" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F339" t="s">
         <v>42</v>
@@ -19002,19 +19002,19 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B340" t="s">
         <v>1121</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C340" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D340" t="s">
         <v>1122</v>
       </c>
-      <c r="C340" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1123</v>
-      </c>
       <c r="E340" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F340" t="s">
         <v>38</v>
@@ -19043,19 +19043,19 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B341" t="s">
         <v>1124</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D341" t="s">
         <v>1125</v>
       </c>
-      <c r="C341" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1126</v>
-      </c>
       <c r="E341" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F341" t="s">
         <v>271</v>
@@ -19084,19 +19084,19 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B342" t="s">
         <v>1127</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>1128</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>1129</v>
       </c>
-      <c r="D342" t="s">
-        <v>1130</v>
-      </c>
       <c r="E342" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F342" t="s">
         <v>30</v>
@@ -19125,19 +19125,19 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B343" t="s">
         <v>1131</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>1132</v>
       </c>
-      <c r="C343" t="s">
-        <v>1133</v>
-      </c>
       <c r="D343" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E343" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F343" t="s">
         <v>199</v>
@@ -19166,19 +19166,19 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B344" t="s">
         <v>1134</v>
       </c>
-      <c r="B344" t="s">
+      <c r="C344" t="s">
         <v>1135</v>
       </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>1136</v>
       </c>
-      <c r="D344" t="s">
-        <v>1137</v>
-      </c>
       <c r="E344" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F344" t="s">
         <v>199</v>
@@ -19207,19 +19207,19 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B345" t="s">
         <v>1138</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D345" t="s">
         <v>1139</v>
       </c>
-      <c r="C345" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1140</v>
-      </c>
       <c r="E345" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F345" t="s">
         <v>113</v>
@@ -19248,19 +19248,19 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B346" t="s">
         <v>1141</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>1142</v>
       </c>
-      <c r="C346" t="s">
+      <c r="D346" t="s">
         <v>1143</v>
       </c>
-      <c r="D346" t="s">
-        <v>1144</v>
-      </c>
       <c r="E346" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F346" t="s">
         <v>571</v>
@@ -19289,19 +19289,19 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B347" t="s">
         <v>1145</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>1146</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>1147</v>
       </c>
-      <c r="D347" t="s">
-        <v>1148</v>
-      </c>
       <c r="E347" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F347" t="s">
         <v>17</v>
@@ -19330,19 +19330,19 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B348" t="s">
         <v>1149</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D348" t="s">
         <v>1150</v>
       </c>
-      <c r="C348" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1151</v>
-      </c>
       <c r="E348" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F348" t="s">
         <v>17</v>
@@ -19371,19 +19371,19 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B349" t="s">
         <v>1152</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D349" t="s">
         <v>1153</v>
       </c>
-      <c r="C349" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1154</v>
-      </c>
       <c r="E349" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F349" t="s">
         <v>101</v>
@@ -19412,19 +19412,19 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B350" t="s">
         <v>1155</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D350" t="s">
         <v>1156</v>
       </c>
-      <c r="C350" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1157</v>
-      </c>
       <c r="E350" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F350" t="s">
         <v>71</v>
@@ -19453,19 +19453,19 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B351" t="s">
         <v>1158</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
         <v>1159</v>
       </c>
-      <c r="C351" t="s">
+      <c r="D351" t="s">
         <v>1160</v>
       </c>
-      <c r="D351" t="s">
-        <v>1161</v>
-      </c>
       <c r="E351" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F351" t="s">
         <v>21</v>
@@ -19494,19 +19494,19 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B352" t="s">
         <v>1162</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C352" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D352" t="s">
         <v>1163</v>
       </c>
-      <c r="C352" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1164</v>
-      </c>
       <c r="E352" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F352" t="s">
         <v>113</v>
@@ -19535,19 +19535,19 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B353" t="s">
         <v>1165</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C353" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D353" t="s">
         <v>1166</v>
       </c>
-      <c r="C353" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1167</v>
-      </c>
       <c r="E353" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F353" t="s">
         <v>113</v>
@@ -19576,19 +19576,19 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B354" t="s">
         <v>1168</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C354" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D354" t="s">
         <v>1169</v>
       </c>
-      <c r="C354" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1170</v>
-      </c>
       <c r="E354" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F354" t="s">
         <v>34</v>
@@ -19617,19 +19617,19 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B355" t="s">
         <v>1171</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>1172</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>1173</v>
       </c>
-      <c r="D355" t="s">
-        <v>1174</v>
-      </c>
       <c r="E355" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F355" t="s">
         <v>271</v>
@@ -19658,19 +19658,19 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B356" t="s">
         <v>1175</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
         <v>1176</v>
       </c>
-      <c r="C356" t="s">
+      <c r="D356" t="s">
         <v>1177</v>
       </c>
-      <c r="D356" t="s">
-        <v>1178</v>
-      </c>
       <c r="E356" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F356" t="s">
         <v>271</v>
@@ -19699,19 +19699,19 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B357" t="s">
         <v>1179</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D357" t="s">
         <v>1180</v>
       </c>
-      <c r="C357" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1181</v>
-      </c>
       <c r="E357" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F357" t="s">
         <v>42</v>
@@ -19740,19 +19740,19 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B358" t="s">
         <v>1182</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D358" t="s">
         <v>1183</v>
       </c>
-      <c r="C358" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1184</v>
-      </c>
       <c r="E358" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F358" t="s">
         <v>67</v>
@@ -19781,19 +19781,19 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B359" t="s">
         <v>1185</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D359" t="s">
         <v>1186</v>
       </c>
-      <c r="C359" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1187</v>
-      </c>
       <c r="E359" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F359" t="s">
         <v>30</v>
@@ -19822,19 +19822,19 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B360" t="s">
         <v>1188</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D360" t="s">
         <v>1189</v>
       </c>
-      <c r="C360" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1190</v>
-      </c>
       <c r="E360" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F360" t="s">
         <v>42</v>
@@ -19863,22 +19863,22 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B361" t="s">
         <v>1191</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D361" t="s">
         <v>1192</v>
       </c>
-      <c r="C361" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D361" t="s">
+      <c r="E361" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F361" t="s">
         <v>1193</v>
-      </c>
-      <c r="E361" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F361" t="s">
-        <v>1194</v>
       </c>
       <c r="G361" t="s">
         <v>22</v>
@@ -19904,22 +19904,22 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B362" t="s">
         <v>1195</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D362" t="s">
         <v>1196</v>
       </c>
-      <c r="C362" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D362" t="s">
+      <c r="E362" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F362" t="s">
         <v>1197</v>
-      </c>
-      <c r="E362" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F362" t="s">
-        <v>1198</v>
       </c>
       <c r="G362" t="s">
         <v>22</v>
@@ -19945,19 +19945,19 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B363" t="s">
         <v>1199</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>1200</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1201</v>
       </c>
-      <c r="D363" t="s">
-        <v>1202</v>
-      </c>
       <c r="E363" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F363" t="s">
         <v>21</v>
@@ -19986,19 +19986,19 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B364" t="s">
         <v>1203</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D364" t="s">
         <v>1204</v>
       </c>
-      <c r="C364" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1205</v>
-      </c>
       <c r="E364" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F364" t="s">
         <v>21</v>
@@ -20027,19 +20027,19 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B365" t="s">
         <v>1206</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D365" t="s">
         <v>1207</v>
       </c>
-      <c r="C365" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1208</v>
-      </c>
       <c r="E365" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F365" t="s">
         <v>307</v>
@@ -20068,19 +20068,19 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B366" t="s">
         <v>1209</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>1210</v>
       </c>
-      <c r="C366" t="s">
+      <c r="D366" t="s">
         <v>1211</v>
       </c>
-      <c r="D366" t="s">
-        <v>1212</v>
-      </c>
       <c r="E366" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F366" t="s">
         <v>42</v>
@@ -20109,19 +20109,19 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B367" t="s">
         <v>1213</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D367" t="s">
         <v>1214</v>
       </c>
-      <c r="C367" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1215</v>
-      </c>
       <c r="E367" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F367" t="s">
         <v>307</v>
@@ -20150,19 +20150,19 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B368" t="s">
         <v>1216</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C368" t="s">
         <v>1217</v>
       </c>
-      <c r="C368" t="s">
+      <c r="D368" t="s">
         <v>1218</v>
       </c>
-      <c r="D368" t="s">
-        <v>1219</v>
-      </c>
       <c r="E368" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F368" t="s">
         <v>113</v>
@@ -20191,19 +20191,19 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B369" t="s">
         <v>1220</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D369" t="s">
         <v>1221</v>
       </c>
-      <c r="C369" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1222</v>
-      </c>
       <c r="E369" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F369" t="s">
         <v>21</v>
@@ -20232,22 +20232,22 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B370" t="s">
         <v>1223</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C370" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D370" t="s">
         <v>1224</v>
       </c>
-      <c r="C370" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D370" t="s">
+      <c r="E370" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F370" t="s">
         <v>1225</v>
-      </c>
-      <c r="E370" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F370" t="s">
-        <v>1226</v>
       </c>
       <c r="G370" t="s">
         <v>13</v>
@@ -20273,19 +20273,19 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B371" t="s">
         <v>1227</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>1228</v>
       </c>
-      <c r="C371" t="s">
+      <c r="D371" t="s">
         <v>1229</v>
       </c>
-      <c r="D371" t="s">
-        <v>1230</v>
-      </c>
       <c r="E371" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F371" t="s">
         <v>17</v>
@@ -20314,19 +20314,19 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B372" t="s">
         <v>1231</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D372" t="s">
         <v>1232</v>
       </c>
-      <c r="C372" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1233</v>
-      </c>
       <c r="E372" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F372" t="s">
         <v>42</v>
@@ -20355,19 +20355,19 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B373" t="s">
         <v>1234</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D373" t="s">
         <v>1235</v>
       </c>
-      <c r="C373" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1236</v>
-      </c>
       <c r="E373" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F373" t="s">
         <v>17</v>
@@ -20396,19 +20396,19 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B374" t="s">
         <v>1237</v>
       </c>
-      <c r="B374" t="s">
+      <c r="C374" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D374" t="s">
         <v>1238</v>
       </c>
-      <c r="C374" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D374" t="s">
-        <v>1239</v>
-      </c>
       <c r="E374" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F374" t="s">
         <v>172</v>
@@ -20437,19 +20437,19 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B375" t="s">
         <v>1240</v>
       </c>
-      <c r="B375" t="s">
+      <c r="C375" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D375" t="s">
         <v>1241</v>
       </c>
-      <c r="C375" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D375" t="s">
-        <v>1242</v>
-      </c>
       <c r="E375" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F375" t="s">
         <v>258</v>
@@ -20478,19 +20478,19 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B376" t="s">
         <v>1243</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D376" t="s">
         <v>1244</v>
       </c>
-      <c r="C376" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1245</v>
-      </c>
       <c r="E376" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F376" t="s">
         <v>38</v>
@@ -20519,22 +20519,22 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B377" t="s">
         <v>1246</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D377" t="s">
         <v>1247</v>
       </c>
-      <c r="C377" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D377" t="s">
+      <c r="E377" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F377" t="s">
         <v>1248</v>
-      </c>
-      <c r="E377" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F377" t="s">
-        <v>1249</v>
       </c>
       <c r="G377" t="s">
         <v>13</v>
@@ -20560,19 +20560,19 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B378" t="s">
         <v>1250</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D378" t="s">
         <v>1251</v>
       </c>
-      <c r="C378" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1252</v>
-      </c>
       <c r="E378" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F378" t="s">
         <v>12</v>
@@ -20601,19 +20601,19 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B379" t="s">
         <v>1253</v>
       </c>
-      <c r="B379" t="s">
+      <c r="C379" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D379" t="s">
         <v>1254</v>
       </c>
-      <c r="C379" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1255</v>
-      </c>
       <c r="E379" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F379" t="s">
         <v>34</v>
@@ -20642,19 +20642,19 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B380" t="s">
         <v>1256</v>
       </c>
-      <c r="B380" t="s">
+      <c r="C380" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D380" t="s">
         <v>1257</v>
       </c>
-      <c r="C380" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1258</v>
-      </c>
       <c r="E380" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F380" t="s">
         <v>17</v>
@@ -20683,22 +20683,22 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B381" t="s">
         <v>1259</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C381" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D381" t="s">
         <v>1260</v>
       </c>
-      <c r="C381" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1261</v>
-      </c>
       <c r="E381" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F381" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G381" t="s">
         <v>13</v>
@@ -20724,22 +20724,22 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B382" t="s">
         <v>1262</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D382" t="s">
         <v>1263</v>
       </c>
-      <c r="C382" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1264</v>
-      </c>
       <c r="E382" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F382" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G382" t="s">
         <v>13</v>
@@ -20765,19 +20765,19 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B383" t="s">
         <v>1265</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D383" t="s">
         <v>1266</v>
       </c>
-      <c r="C383" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1267</v>
-      </c>
       <c r="E383" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F383" t="s">
         <v>217</v>
@@ -20806,19 +20806,19 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B384" t="s">
         <v>1268</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D384" t="s">
         <v>1269</v>
       </c>
-      <c r="C384" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1270</v>
-      </c>
       <c r="E384" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F384" t="s">
         <v>17</v>
@@ -20847,19 +20847,19 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B385" t="s">
         <v>1271</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D385" t="s">
         <v>1272</v>
       </c>
-      <c r="C385" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1273</v>
-      </c>
       <c r="E385" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F385" t="s">
         <v>71</v>
@@ -20888,19 +20888,19 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B386" t="s">
         <v>1274</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D386" t="s">
         <v>1275</v>
       </c>
-      <c r="C386" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1276</v>
-      </c>
       <c r="E386" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F386" t="s">
         <v>21</v>
@@ -20929,19 +20929,19 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B387" t="s">
         <v>1277</v>
       </c>
-      <c r="B387" t="s">
+      <c r="C387" t="s">
         <v>1278</v>
       </c>
-      <c r="C387" t="s">
+      <c r="D387" t="s">
         <v>1279</v>
       </c>
-      <c r="D387" t="s">
-        <v>1280</v>
-      </c>
       <c r="E387" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F387" t="s">
         <v>30</v>
@@ -20970,19 +20970,19 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B388" t="s">
         <v>1281</v>
       </c>
-      <c r="B388" t="s">
+      <c r="C388" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D388" t="s">
         <v>1282</v>
       </c>
-      <c r="C388" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1283</v>
-      </c>
       <c r="E388" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F388" t="s">
         <v>53</v>
@@ -21011,19 +21011,19 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B389" t="s">
         <v>1284</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D389" t="s">
         <v>1285</v>
       </c>
-      <c r="C389" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1286</v>
-      </c>
       <c r="E389" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F389" t="s">
         <v>113</v>
@@ -21052,19 +21052,19 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B390" t="s">
         <v>1287</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C390" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D390" t="s">
         <v>1288</v>
       </c>
-      <c r="C390" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D390" t="s">
-        <v>1289</v>
-      </c>
       <c r="E390" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F390" t="s">
         <v>396</v>
@@ -21093,19 +21093,19 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B391" t="s">
         <v>1290</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D391" t="s">
         <v>1291</v>
       </c>
-      <c r="C391" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1292</v>
-      </c>
       <c r="E391" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F391" t="s">
         <v>21</v>
@@ -21134,19 +21134,19 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B392" t="s">
         <v>1293</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C392" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D392" t="s">
         <v>1294</v>
       </c>
-      <c r="C392" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1295</v>
-      </c>
       <c r="E392" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F392" t="s">
         <v>199</v>
@@ -21175,19 +21175,19 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B393" t="s">
         <v>1296</v>
       </c>
-      <c r="B393" t="s">
+      <c r="C393" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D393" t="s">
         <v>1297</v>
       </c>
-      <c r="C393" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1298</v>
-      </c>
       <c r="E393" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F393" t="s">
         <v>42</v>
@@ -21216,19 +21216,19 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B394" t="s">
         <v>1299</v>
       </c>
-      <c r="B394" t="s">
+      <c r="C394" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D394" t="s">
         <v>1300</v>
       </c>
-      <c r="C394" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D394" t="s">
-        <v>1301</v>
-      </c>
       <c r="E394" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F394" t="s">
         <v>101</v>
@@ -21257,19 +21257,19 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B395" t="s">
         <v>1302</v>
       </c>
-      <c r="B395" t="s">
+      <c r="C395" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D395" t="s">
         <v>1303</v>
       </c>
-      <c r="C395" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D395" t="s">
-        <v>1304</v>
-      </c>
       <c r="E395" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F395" t="s">
         <v>21</v>
@@ -21298,19 +21298,19 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B396" t="s">
         <v>1305</v>
       </c>
-      <c r="B396" t="s">
+      <c r="C396" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D396" t="s">
         <v>1306</v>
       </c>
-      <c r="C396" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D396" t="s">
-        <v>1307</v>
-      </c>
       <c r="E396" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F396" t="s">
         <v>21</v>
@@ -21339,19 +21339,19 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B397" t="s">
         <v>1308</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C397" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D397" t="s">
         <v>1309</v>
       </c>
-      <c r="C397" t="s">
-        <v>1308</v>
-      </c>
-      <c r="D397" t="s">
-        <v>1310</v>
-      </c>
       <c r="E397" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F397" t="s">
         <v>12</v>
@@ -21380,19 +21380,19 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B398" t="s">
         <v>1311</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D398" t="s">
         <v>1312</v>
       </c>
-      <c r="C398" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1313</v>
-      </c>
       <c r="E398" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F398" t="s">
         <v>271</v>
@@ -21421,19 +21421,19 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B399" t="s">
         <v>1314</v>
       </c>
-      <c r="B399" t="s">
+      <c r="C399" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D399" t="s">
         <v>1315</v>
       </c>
-      <c r="C399" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1316</v>
-      </c>
       <c r="E399" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F399" t="s">
         <v>30</v>
@@ -21462,22 +21462,22 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B400" t="s">
         <v>1317</v>
       </c>
-      <c r="B400" t="s">
+      <c r="C400" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D400" t="s">
         <v>1318</v>
       </c>
-      <c r="C400" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D400" t="s">
+      <c r="E400" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F400" t="s">
         <v>1319</v>
-      </c>
-      <c r="E400" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F400" t="s">
-        <v>1320</v>
       </c>
       <c r="G400" t="s">
         <v>22</v>
@@ -21503,22 +21503,22 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D401" t="s">
         <v>1321</v>
       </c>
-      <c r="B401" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C401" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1322</v>
-      </c>
       <c r="E401" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F401" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G401" t="s">
         <v>13</v>
@@ -21544,19 +21544,19 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B402" t="s">
         <v>1323</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D402" t="s">
         <v>1324</v>
       </c>
-      <c r="C402" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1325</v>
-      </c>
       <c r="E402" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F402" t="s">
         <v>296</v>
@@ -21585,19 +21585,19 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B403" t="s">
         <v>1326</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D403" t="s">
         <v>1327</v>
       </c>
-      <c r="C403" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1328</v>
-      </c>
       <c r="E403" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F403" t="s">
         <v>17</v>
@@ -21626,19 +21626,19 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B404" t="s">
         <v>1329</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D404" t="s">
         <v>1330</v>
       </c>
-      <c r="C404" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1331</v>
-      </c>
       <c r="E404" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F404" t="s">
         <v>307</v>
@@ -21667,19 +21667,19 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B405" t="s">
         <v>1332</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D405" t="s">
         <v>1333</v>
       </c>
-      <c r="C405" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D405" t="s">
-        <v>1334</v>
-      </c>
       <c r="E405" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F405" t="s">
         <v>271</v>
@@ -21708,19 +21708,19 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B406" t="s">
         <v>1335</v>
       </c>
-      <c r="B406" t="s">
+      <c r="C406" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D406" t="s">
         <v>1336</v>
       </c>
-      <c r="C406" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D406" t="s">
-        <v>1337</v>
-      </c>
       <c r="E406" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F406" t="s">
         <v>406</v>
@@ -21749,19 +21749,19 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B407" t="s">
         <v>1338</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C407" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D407" t="s">
         <v>1339</v>
       </c>
-      <c r="C407" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D407" t="s">
-        <v>1340</v>
-      </c>
       <c r="E407" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F407" t="s">
         <v>17</v>
@@ -21790,19 +21790,19 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B408" t="s">
         <v>1341</v>
       </c>
-      <c r="B408" t="s">
+      <c r="C408" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D408" t="s">
         <v>1342</v>
       </c>
-      <c r="C408" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1343</v>
-      </c>
       <c r="E408" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F408" t="s">
         <v>101</v>
@@ -21831,19 +21831,19 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B409" t="s">
         <v>1344</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D409" t="s">
         <v>1345</v>
       </c>
-      <c r="C409" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D409" t="s">
-        <v>1346</v>
-      </c>
       <c r="E409" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F409" t="s">
         <v>17</v>
@@ -21872,19 +21872,19 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B410" t="s">
         <v>1347</v>
       </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D410" t="s">
         <v>1348</v>
       </c>
-      <c r="C410" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1349</v>
-      </c>
       <c r="E410" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F410" t="s">
         <v>172</v>
@@ -21913,19 +21913,19 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B411" t="s">
         <v>1350</v>
       </c>
-      <c r="B411" t="s">
+      <c r="C411" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D411" t="s">
         <v>1351</v>
       </c>
-      <c r="C411" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D411" t="s">
-        <v>1352</v>
-      </c>
       <c r="E411" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F411" t="s">
         <v>17</v>
@@ -21954,19 +21954,19 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B412" t="s">
         <v>1353</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D412" t="s">
         <v>1354</v>
       </c>
-      <c r="C412" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1355</v>
-      </c>
       <c r="E412" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F412" t="s">
         <v>42</v>
@@ -21995,19 +21995,19 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D413" t="s">
         <v>1356</v>
       </c>
-      <c r="B413" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1357</v>
-      </c>
       <c r="E413" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F413" t="s">
         <v>21</v>
@@ -22036,19 +22036,19 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B414" t="s">
         <v>1358</v>
       </c>
-      <c r="B414" t="s">
+      <c r="C414" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D414" t="s">
         <v>1359</v>
       </c>
-      <c r="C414" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D414" t="s">
-        <v>1360</v>
-      </c>
       <c r="E414" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F414" t="s">
         <v>30</v>
@@ -22077,19 +22077,19 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B415" t="s">
         <v>1361</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D415" t="s">
         <v>1362</v>
       </c>
-      <c r="C415" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1363</v>
-      </c>
       <c r="E415" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F415" t="s">
         <v>42</v>
@@ -22118,19 +22118,19 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B416" t="s">
         <v>1364</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D416" t="s">
         <v>1365</v>
       </c>
-      <c r="C416" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D416" t="s">
-        <v>1366</v>
-      </c>
       <c r="E416" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F416" t="s">
         <v>307</v>
@@ -22159,19 +22159,19 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B417" t="s">
         <v>1367</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D417" t="s">
         <v>1368</v>
       </c>
-      <c r="C417" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D417" t="s">
-        <v>1369</v>
-      </c>
       <c r="E417" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F417" t="s">
         <v>53</v>
@@ -22200,19 +22200,19 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B418" t="s">
         <v>1370</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D418" t="s">
         <v>1371</v>
       </c>
-      <c r="C418" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1372</v>
-      </c>
       <c r="E418" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F418" t="s">
         <v>42</v>
@@ -22241,19 +22241,19 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B419" t="s">
         <v>1373</v>
       </c>
-      <c r="B419" t="s">
+      <c r="C419" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D419" t="s">
         <v>1374</v>
       </c>
-      <c r="C419" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D419" t="s">
-        <v>1375</v>
-      </c>
       <c r="E419" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F419" t="s">
         <v>42</v>
@@ -22282,19 +22282,19 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B420" t="s">
         <v>1376</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D420" t="s">
         <v>1377</v>
       </c>
-      <c r="C420" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1378</v>
-      </c>
       <c r="E420" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F420" t="s">
         <v>17</v>
@@ -22323,19 +22323,19 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B421" t="s">
         <v>1379</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
         <v>1380</v>
       </c>
-      <c r="C421" t="s">
+      <c r="D421" t="s">
         <v>1381</v>
       </c>
-      <c r="D421" t="s">
-        <v>1382</v>
-      </c>
       <c r="E421" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F421" t="s">
         <v>258</v>
@@ -22364,19 +22364,19 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B422" t="s">
         <v>1383</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D422" t="s">
         <v>1384</v>
       </c>
-      <c r="C422" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1385</v>
-      </c>
       <c r="E422" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F422" t="s">
         <v>663</v>
@@ -22405,22 +22405,22 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B423" t="s">
         <v>1386</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D423" t="s">
         <v>1387</v>
       </c>
-      <c r="C423" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D423" t="s">
+      <c r="E423" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F423" t="s">
         <v>1388</v>
-      </c>
-      <c r="E423" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1389</v>
       </c>
       <c r="G423" t="s">
         <v>22</v>
@@ -22446,19 +22446,19 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B424" t="s">
         <v>1390</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D424" t="s">
         <v>1391</v>
       </c>
-      <c r="C424" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1392</v>
-      </c>
       <c r="E424" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F424" t="s">
         <v>406</v>
